--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail15 Features.xlsx
@@ -5441,7 +5441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5452,29 +5452,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5495,115 +5493,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5620,72 +5608,66 @@
         <v>1.159758915259487e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.4440194115002311</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9586762445777457</v>
+        <v>2.307675341177355e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.03013934543786413</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.307675341177355e-06</v>
+        <v>0.1382642252541493</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03013934543786413</v>
+        <v>0.02001455739558303</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1382642252541493</v>
+        <v>1.906113954584139</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02001455739558303</v>
+        <v>2.160527000564801</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.927964369113954</v>
+        <v>4.00196681795267</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.160527000564801</v>
+        <v>1.187812857322933e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.00196681795267</v>
+        <v>1156467594.794858</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.187812857322933e-16</v>
+        <v>1.033385396383202e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1156467594.794858</v>
+        <v>158.860146194553</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.033385396383202e-07</v>
+        <v>0.0001411463083935848</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>158.860146194553</v>
+        <v>12.55844905262484</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001411463083935848</v>
+        <v>1.071268199252403</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.55844905262484</v>
+        <v>0.0222608395836444</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.071268199252403</v>
+        <v>3.481888817963476</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0222608395836444</v>
+        <v>0.9573956056796626</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.481888817963476</v>
+        <v>1.30265321064115</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9573956056796626</v>
+        <v>107</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.30265321064115</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.633683287793442</v>
       </c>
     </row>
@@ -5700,72 +5682,66 @@
         <v>1.190841497808452e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.4256451907459929</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.043743240297637</v>
+        <v>2.304544521396898e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.02376241149083133</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.304544521396898e-06</v>
+        <v>0.1296176115332082</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02376241149083133</v>
+        <v>0.01736226506377942</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1296176115332082</v>
+        <v>1.905416124086362</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01736226506377942</v>
+        <v>2.211217029744017</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.925103318641952</v>
+        <v>4.123331252275182</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.211217029744017</v>
+        <v>1.189545207124038e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.123331252275182</v>
+        <v>1159012705.65301</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.189545207124038e-16</v>
+        <v>1.030017873679136e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1159012705.65301</v>
+        <v>159.7928509695769</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.030017873679136e-07</v>
+        <v>0.0001505922012534113</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>159.7928509695769</v>
+        <v>9.385993277607014</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001505922012534113</v>
+        <v>1.27384819775972</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.385993277607014</v>
+        <v>0.01326670154781409</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.27384819775972</v>
+        <v>3.219352259719624</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01326670154781409</v>
+        <v>0.9578176717856415</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.219352259719624</v>
+        <v>1.367818669279028</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9578176717856415</v>
+        <v>84</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.367818669279028</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.9411396658809291</v>
       </c>
     </row>
@@ -5780,72 +5756,66 @@
         <v>1.218301841778119e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.4120667415359776</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.117041152700464</v>
+        <v>2.301908868980091e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.02049025866706505</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.301908868980091e-06</v>
+        <v>0.1259042096740335</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02049025866706505</v>
+        <v>0.01627154574143896</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1259042096740335</v>
+        <v>1.902858723455391</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01627154574143896</v>
+        <v>2.270042303279302</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.919745926555362</v>
+        <v>4.151289708564975</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.270042303279302</v>
+        <v>1.173576264397635e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.151289708564975</v>
+        <v>1159836152.791107</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.173576264397635e-16</v>
+        <v>1.026461504978305e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1159836152.791107</v>
+        <v>157.8718146585979</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.026461504978305e-07</v>
+        <v>0.000145158335676454</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>157.8718146585979</v>
+        <v>8.280963522906056</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000145158335676454</v>
+        <v>1.3010272818203</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.280963522906056</v>
+        <v>0.009954139512998646</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.3010272818203</v>
+        <v>3.129872152827904</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009954139512998646</v>
+        <v>0.9585123118505098</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.129872152827904</v>
+        <v>1.3716489508066</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9585123118505098</v>
+        <v>84</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.3716489508066</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.6147670402490375</v>
       </c>
     </row>
@@ -5860,72 +5830,66 @@
         <v>1.243148437841629e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.3957121740358699</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.187521931887379</v>
+        <v>2.299440800372381e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.02005541602742414</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.299440800372381e-06</v>
+        <v>0.1232389322604073</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02005541602742414</v>
+        <v>0.01558906882685781</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1232389322604073</v>
+        <v>1.906075077324779</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01558906882685781</v>
+        <v>2.128447726533225</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.91852372521808</v>
+        <v>4.26769080757098</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.128447726533225</v>
+        <v>1.110430822384767e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.26769080757098</v>
+        <v>1234913094.474321</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.110430822384767e-16</v>
+        <v>9.667497621212842e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1234913094.474321</v>
+        <v>169.3418498099771</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.667497621212842e-08</v>
+        <v>0.0001334663042374813</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>169.3418498099771</v>
+        <v>8.379796189445097</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001334663042374813</v>
+        <v>1.245965881791778</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.379796189445097</v>
+        <v>0.009372135237974607</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.245965881791778</v>
+        <v>3.15758309074505</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009372135237974607</v>
+        <v>0.9582382567803688</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.15758309074505</v>
+        <v>1.33190551172788</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9582382567803688</v>
+        <v>63</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.33190551172788</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.5107726375388574</v>
       </c>
     </row>
@@ -5940,72 +5904,66 @@
         <v>1.266364596671871e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.3696082063885529</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.263103801515255</v>
+        <v>2.296827924801317e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.02178928260265139</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.296827924801317e-06</v>
+        <v>0.1185397522491417</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02178928260265139</v>
+        <v>0.01452289207736569</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1185397522491417</v>
+        <v>1.894601282563641</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01452289207736569</v>
+        <v>2.204424220860214</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.907543419338541</v>
+        <v>4.18088411691633</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.204424220860214</v>
+        <v>1.157020736230822e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.18088411691633</v>
+        <v>1189532057.029366</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.157020736230822e-16</v>
+        <v>1.001491529087071e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1189532057.029366</v>
+        <v>163.7168738995475</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.001491529087071e-07</v>
+        <v>0.0001241037411471652</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>163.7168738995475</v>
+        <v>8.889376994400296</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001241037411471652</v>
+        <v>1.198330260516707</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.889376994400296</v>
+        <v>0.00980680462683543</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.198330260516707</v>
+        <v>3.164202857886689</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00980680462683543</v>
+        <v>0.9580420480492471</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.164202857886689</v>
+        <v>1.385713900053471</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9580420480492471</v>
+        <v>26</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.385713900053471</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.5210984842033917</v>
       </c>
     </row>
@@ -6020,72 +5978,66 @@
         <v>1.287253435624633e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3295898784625881</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.34166860936852</v>
+        <v>2.293892670098026e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.02400683594272088</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.293892670098026e-06</v>
+        <v>0.1126371845013963</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02400683594272088</v>
+        <v>0.0132600838790246</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1126371845013963</v>
+        <v>1.88872688846692</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0132600838790246</v>
+        <v>2.021213374023294</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.898765518467706</v>
+        <v>4.796507098787743</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.021213374023294</v>
+        <v>1.537336835517334e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.796507098787743</v>
+        <v>891391767.0710276</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.537336835517334e-16</v>
+        <v>1.336607193100524e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>891391767.0710276</v>
+        <v>122.1535999575539</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.336607193100524e-07</v>
+        <v>0.0001270512701454866</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>122.1535999575539</v>
+        <v>9.09111248309808</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001270512701454866</v>
+        <v>1.22672096930653</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.09111248309808</v>
+        <v>0.01050057481661089</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.22672096930653</v>
+        <v>3.267804955646134</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01050057481661089</v>
+        <v>0.9579540793921614</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.267804955646134</v>
+        <v>1.39092875728387</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9579540793921614</v>
+        <v>20</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.39092875728387</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4948903052388065</v>
       </c>
     </row>
@@ -6100,72 +6052,66 @@
         <v>1.304041853561539e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.2785412101796146</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.412848286264117</v>
+        <v>2.29073753058572e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.02413722419127875</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.29073753058572e-06</v>
+        <v>0.1104806660443887</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.02413722419127875</v>
+        <v>0.01278686128238975</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1104806660443887</v>
+        <v>1.876549391980762</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01278686128238975</v>
+        <v>1.763884841471555</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.876557663437836</v>
+        <v>5.20125875398102</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.763884841471555</v>
+        <v>3.293834043928917e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.20125875398102</v>
+        <v>417322115.5013803</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.293834043928917e-16</v>
+        <v>2.853095938467712e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>417322115.5013803</v>
+        <v>57.36467196614658</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.853095938467712e-07</v>
+        <v>0.0001805651871777475</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>57.36467196614658</v>
+        <v>9.12035152264778</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001805651871777475</v>
+        <v>1.521876548293063</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.12035152264778</v>
+        <v>0.01501955886971808</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.521876548293063</v>
+        <v>3.02866909420542</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01501955886971808</v>
+        <v>0.958446008598565</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.02866909420542</v>
+        <v>1.439057981930568</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.958446008598565</v>
+        <v>20</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.439057981930568</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.3460310447584151</v>
       </c>
     </row>
@@ -6180,72 +6126,66 @@
         <v>1.315743372843876e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.2243626306125412</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.469060226858669</v>
+        <v>2.287729972283089e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.02128899284827172</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.287729972283089e-06</v>
+        <v>0.1124557732070496</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02128899284827172</v>
+        <v>0.01309647346545016</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1124557732070496</v>
+        <v>1.880489988070105</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01309647346545016</v>
+        <v>1.723720868483108</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.873880088970965</v>
+        <v>4.281429135512751</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.723720868483108</v>
+        <v>6.449018438643608e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.281429135512751</v>
+        <v>221764240.0632433</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.449018438643608e-16</v>
+        <v>5.385958170517266e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>221764240.0632433</v>
+        <v>31.71587166246956</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.385958170517266e-07</v>
+        <v>0.0002172513535552709</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>31.71587166246956</v>
+        <v>10.05580898680729</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002172513535552709</v>
+        <v>1.467250533384955</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.05580898680729</v>
+        <v>0.02196830357442514</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.467250533384955</v>
+        <v>2.717326157127511</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02196830357442514</v>
+        <v>0.9581484525179679</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.717326157127511</v>
+        <v>1.466030681887963</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9581484525179679</v>
+        <v>20</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.466030681887963</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.248645268798028</v>
       </c>
     </row>
@@ -6260,72 +6200,66 @@
         <v>1.322419883464228e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.1747895308927787</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.506573286252391</v>
+        <v>2.285227858266927e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.01637752522389131</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.285227858266927e-06</v>
+        <v>0.1168407993085055</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01637752522389131</v>
+        <v>0.01391518014436607</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1168407993085055</v>
+        <v>1.867462594938464</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01391518014436607</v>
+        <v>1.758503686570379</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.848913057283744</v>
+        <v>4.072891439734295</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.758503686570379</v>
+        <v>7.126322463716079e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.072891439734295</v>
+        <v>202432640.2673401</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>7.126322463716079e-16</v>
+        <v>5.880606290930986e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>202432640.2673401</v>
+        <v>29.20293818559781</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.880606290930986e-07</v>
+        <v>0.0001953563611046571</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>29.20293818559781</v>
+        <v>11.85842063233082</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001953563611046571</v>
+        <v>1.102003808007215</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.85842063233082</v>
+        <v>0.02747142954030305</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.102003808007215</v>
+        <v>2.597121126681261</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02747142954030305</v>
+        <v>0.9587942364712188</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.597121126681261</v>
+        <v>1.534202500789938</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9587942364712188</v>
+        <v>20</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.534202500789938</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2361183405401824</v>
       </c>
     </row>
@@ -6340,72 +6274,66 @@
         <v>1.325068634123779e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.1366183433097352</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.525222446011967</v>
+        <v>2.283439962573852e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.01053481000668304</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.283439962573852e-06</v>
+        <v>0.1225993511500179</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.01053481000668304</v>
+        <v>0.01513588160472853</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1225993511500179</v>
+        <v>1.808984820944382</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01513588160472853</v>
+        <v>1.784924506998292</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.775655697761283</v>
+        <v>5.081405217797716</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.784924506998292</v>
+        <v>7.60024052192231e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.081405217797716</v>
+        <v>195519270.4183928</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>7.60024052192231e-16</v>
+        <v>5.956952335011556e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>195519270.4183928</v>
+        <v>29.05403614179076</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.956952335011556e-07</v>
+        <v>0.0001815266367233934</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>29.05403614179076</v>
+        <v>12.13216478345049</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001815266367233934</v>
+        <v>1.045050103648969</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.13216478345049</v>
+        <v>0.02671880079733163</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.045050103648969</v>
+        <v>2.540186659431674</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02671880079733163</v>
+        <v>0.9583450307104341</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.540186659431674</v>
+        <v>1.553547181766655</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9583450307104341</v>
+        <v>21</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.553547181766655</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2343272657097463</v>
       </c>
     </row>
@@ -6420,72 +6348,66 @@
         <v>1.325368419875067e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1135385024712359</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.530399774864681</v>
+        <v>2.282399501165232e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.005431680472433999</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.282399501165232e-06</v>
+        <v>0.1272089700134326</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.005431680472433999</v>
+        <v>0.01620842471455826</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1272089700134326</v>
+        <v>1.755597300986015</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01620842471455826</v>
+        <v>1.652804766632158</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.702587978866363</v>
+        <v>5.117408275819392</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.652804766632158</v>
+        <v>1.788380050593351e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.117408275819392</v>
+        <v>84185532.70768555</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.788380050593351e-15</v>
+        <v>1.349287299750394e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>84185532.70768555</v>
+        <v>12.67461410014487</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.349287299750394e-06</v>
+        <v>0.0002001922156309559</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>12.67461410014487</v>
+        <v>9.303962927185029</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002001922156309559</v>
+        <v>1.527339560637974</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.303962927185029</v>
+        <v>0.01732938413132658</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.527339560637974</v>
+        <v>2.790150606861278</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01732938413132658</v>
+        <v>0.9559330238584796</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.790150606861278</v>
+        <v>1.76647515597785</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9559330238584796</v>
+        <v>21</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.76647515597785</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1800611415163668</v>
       </c>
     </row>
@@ -6500,72 +6422,66 @@
         <v>1.325017155362996e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1027227860342296</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.530450184300431</v>
+        <v>2.281911257052557e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.002249913716296663</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.281911257052557e-06</v>
+        <v>0.1295674118064377</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.002249913716296663</v>
+        <v>0.01679130773522061</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1295674118064377</v>
+        <v>1.733875136166449</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01679130773522061</v>
+        <v>1.599270343142432</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.672338637853613</v>
+        <v>4.401148938578133</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.599270343142432</v>
+        <v>2.710675445082193e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.401148938578133</v>
+        <v>55053085.14469862</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.710675445082193e-15</v>
+        <v>2.049830839664053e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>55053085.14469862</v>
+        <v>8.215629485951021</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.049830839664053e-06</v>
+        <v>0.0002171475936401575</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>8.215629485951021</v>
+        <v>9.294364660486927</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002171475936401575</v>
+        <v>1.596959515895929</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.294364660486927</v>
+        <v>0.01875834144219279</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.596959515895929</v>
+        <v>2.698850834250786</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01875834144219279</v>
+        <v>0.9536106765347453</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.698850834250786</v>
+        <v>1.707309840160356</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9536106765347453</v>
+        <v>21</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.707309840160356</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.149704744334853</v>
       </c>
     </row>
@@ -6580,72 +6496,66 @@
         <v>1.324660601728981e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.09795137151619189</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.529566718648278</v>
+        <v>2.281689633717872e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.001545229078740259</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.281689633717872e-06</v>
+        <v>0.1300559909255629</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.001545229078740259</v>
+        <v>0.01691633135140817</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1300559909255629</v>
+        <v>1.715888787766432</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01691633135140817</v>
+        <v>1.523057704278314</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.648868493005293</v>
+        <v>3.879046819327675</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.523057704278314</v>
+        <v>4.237525825142246e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.879046819327675</v>
+        <v>35280770.89435425</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>4.237525825142246e-15</v>
+        <v>3.18103906535648e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>35280770.89435425</v>
+        <v>5.274587363789874</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.18103906535648e-06</v>
+        <v>0.0002009447237723358</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>5.274587363789874</v>
+        <v>10.31703751851961</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002009447237723358</v>
+        <v>1.311186797611332</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.31703751851961</v>
+        <v>0.02138881022337157</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.311186797611332</v>
+        <v>2.668525221012223</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02138881022337157</v>
+        <v>0.9536808305286624</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.668525221012223</v>
+        <v>1.765214152834061</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9536808305286624</v>
+        <v>21</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.765214152834061</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1435205443129351</v>
       </c>
     </row>
@@ -6660,72 +6570,66 @@
         <v>1.323919862491431e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.09149045902170856</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.527303915647828</v>
+        <v>2.281377940289686e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.003567866580114084</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.281377940289686e-06</v>
+        <v>0.1290622488199057</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.003567866580114084</v>
+        <v>0.01666784120998649</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1290622488199057</v>
+        <v>1.674280469110537</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01666784120998649</v>
+        <v>1.514464073967639</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.601308200120634</v>
+        <v>3.64107593906952</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.514464073967639</v>
+        <v>4.809533204501509e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.64107593906952</v>
+        <v>31754740.50172638</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.809533204501509e-15</v>
+        <v>3.483761033428312e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>31754740.50172638</v>
+        <v>4.849757948673497</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.483761033428312e-06</v>
+        <v>0.0001879902836931322</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>4.849757948673497</v>
+        <v>11.92675544540022</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001879902836931322</v>
+        <v>1.071133655722657</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.92675544540022</v>
+        <v>0.02674114702510714</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.071133655722657</v>
+        <v>2.555830498944224</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02674114702510714</v>
+        <v>0.952232997749501</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.555830498944224</v>
+        <v>1.775053526404212</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.952232997749501</v>
+        <v>21</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.775053526404212</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1532059521457798</v>
       </c>
     </row>
@@ -6740,72 +6644,66 @@
         <v>1.321553369116514e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.07721264624010107</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.519600968724053</v>
+        <v>2.280642123156495e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.00788872671390059</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.280642123156495e-06</v>
+        <v>0.1256729007617778</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.00788872671390059</v>
+        <v>0.0158502726815387</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1256729007617778</v>
+        <v>1.65060444751667</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0158502726815387</v>
+        <v>1.529413680208124</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.572461178145174</v>
+        <v>3.66624960145625</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.529413680208124</v>
+        <v>4.743712317762976e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.66624960145625</v>
+        <v>32363951.56739527</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.743712317762976e-15</v>
+        <v>3.39572198755937e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>32363951.56739527</v>
+        <v>4.968684587182033</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.39572198755937e-06</v>
+        <v>0.0001868110677743291</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>4.968684587182033</v>
+        <v>12.3915199097712</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001868110677743291</v>
+        <v>1.046694203852615</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.3915199097712</v>
+        <v>0.02868479568210579</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.046694203852615</v>
+        <v>2.49560039312672</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02868479568210579</v>
+        <v>0.9513294338239107</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.49560039312672</v>
+        <v>1.786966821318822</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9513294338239107</v>
+        <v>26</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.786966821318822</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1588682612487784</v>
       </c>
     </row>
@@ -6820,72 +6718,66 @@
         <v>1.314897956699301e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.05390520081216792</v>
+        <v>3.802374274313072e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.499211806928707</v>
+        <v>2.279204740209351e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.802374274313072e-07</v>
+        <v>-0.01401200347621253</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.279204740209351e-06</v>
+        <v>0.1176958382894964</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.01401200347621253</v>
+        <v>0.01404066315529988</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1176958382894964</v>
+        <v>1.650728458842427</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01404066315529988</v>
+        <v>1.58524692650458</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.571119212151118</v>
+        <v>3.644952877012079</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.58524692650458</v>
+        <v>4.799307368454464e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.644952877012079</v>
+        <v>31867208.53031279</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.799307368454464e-15</v>
+        <v>3.455950124568404e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>31867208.53031279</v>
+        <v>4.87378772118901</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.455950124568404e-06</v>
+        <v>0.0001907823456407253</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>4.87378772118901</v>
+        <v>10.63216522509722</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001907823456407253</v>
+        <v>1.246920465244396</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.63216522509722</v>
+        <v>0.02156659675028482</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.246920465244396</v>
+        <v>2.720888024152209</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02156659675028482</v>
+        <v>0.9523946283859783</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.720888024152209</v>
+        <v>1.799297591664899</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9523946283859783</v>
+        <v>15</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.799297591664899</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.147114449392597</v>
       </c>
     </row>
@@ -7262,7 +7154,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.857843211781169</v>
+        <v>1.948080129655491</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.638630057650001</v>
@@ -7351,7 +7243,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.850401852383284</v>
+        <v>1.937109281928597</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.463231977493565</v>
@@ -7440,7 +7332,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.859184789633956</v>
+        <v>1.943640322557344</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.080595172169478</v>
@@ -7529,7 +7421,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.852245948477498</v>
+        <v>1.942577325789088</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.97417105228455</v>
@@ -7618,7 +7510,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.848625366434706</v>
+        <v>1.94113776071719</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5.012095619894805</v>
@@ -7707,7 +7599,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.842263920729178</v>
+        <v>1.935847040717305</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.492881087068231</v>
@@ -7796,7 +7688,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.830585703918296</v>
+        <v>1.924825091941072</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.404149986837339</v>
@@ -7885,7 +7777,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.836140658596503</v>
+        <v>1.930357533200343</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.756420411839839</v>
@@ -7974,7 +7866,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.834890868520536</v>
+        <v>1.930414726919947</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.949388939036733</v>
@@ -8063,7 +7955,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.831781924269416</v>
+        <v>1.928980376231322</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.053717376798657</v>
@@ -8152,7 +8044,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.833328757585948</v>
+        <v>1.931135732088687</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.025553771959419</v>
@@ -8241,7 +8133,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.839812056742037</v>
+        <v>1.94151632271144</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.125941548748524</v>
@@ -8330,7 +8222,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.834618247893218</v>
+        <v>1.938722337456168</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.651749071834951</v>
@@ -8419,7 +8311,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.844634907390152</v>
+        <v>1.957666866710533</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.651469238298798</v>
@@ -8508,7 +8400,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.853502876734341</v>
+        <v>1.968799970644808</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.549303363624257</v>
@@ -8597,7 +8489,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.869350893060363</v>
+        <v>1.980792701043109</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.821312732459557</v>
@@ -8686,7 +8578,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.8755222670447</v>
+        <v>1.984755340681644</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.654125630199111</v>
@@ -8775,7 +8667,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.880721128994934</v>
+        <v>1.987478852387577</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.767567639688063</v>
@@ -8864,7 +8756,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.903013271691125</v>
+        <v>2.006667743043112</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.848409414819725</v>
@@ -8953,7 +8845,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.902200489779919</v>
+        <v>2.002922740785761</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.612616319098603</v>
@@ -9042,7 +8934,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.911376789575457</v>
+        <v>2.009806724115785</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.776395455959821</v>
@@ -9131,7 +9023,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.920102392470602</v>
+        <v>2.018021751200797</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.779543455413692</v>
@@ -9220,7 +9112,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.924056227590283</v>
+        <v>2.020826095527587</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.72156225532982</v>
@@ -9309,7 +9201,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.921945993154789</v>
+        <v>2.019744210071674</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.727048041370204</v>
@@ -9398,7 +9290,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.934367989918804</v>
+        <v>2.033889162985602</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.690316087906985</v>
@@ -9487,7 +9379,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.937980993824127</v>
+        <v>2.037647910786585</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.791427609583909</v>
@@ -9576,7 +9468,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.946863480026685</v>
+        <v>2.048287468931095</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.478487348155476</v>
@@ -9665,7 +9557,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.974678199317034</v>
+        <v>2.075685622336917</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.106354006683751</v>
@@ -9754,7 +9646,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.964608057753487</v>
+        <v>2.062104598930782</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.191098202364639</v>
@@ -9843,7 +9735,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.948050841276587</v>
+        <v>2.046650327089377</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.400414961400757</v>
@@ -9932,7 +9824,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.939545887690828</v>
+        <v>2.039901687369664</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.311733525854326</v>
@@ -10021,7 +9913,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.936250918578568</v>
+        <v>2.034927405165156</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.847650130981489</v>
@@ -10110,7 +10002,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.946160248547112</v>
+        <v>2.047510786284186</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.941163650249912</v>
@@ -10199,7 +10091,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.92521008474784</v>
+        <v>2.028121200710459</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.424899549327377</v>
@@ -10288,7 +10180,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.930206858480908</v>
+        <v>2.035796498597445</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.230357182375124</v>
@@ -10377,7 +10269,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.92407752919337</v>
+        <v>2.031257952101591</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.797170678363804</v>
@@ -10466,7 +10358,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.920423449880452</v>
+        <v>2.028733625401156</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.916481363096305</v>
@@ -10555,7 +10447,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.909924458092411</v>
+        <v>2.0192611866796</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.858640436672273</v>
@@ -10644,7 +10536,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.914733274462021</v>
+        <v>2.021005145761644</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.286009961400626</v>
@@ -10733,7 +10625,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.920715286122851</v>
+        <v>2.026391443655897</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.326250822329868</v>
@@ -10822,7 +10714,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.917947265632318</v>
+        <v>2.024570070608423</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.538040643290043</v>
@@ -10911,7 +10803,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.91377785708691</v>
+        <v>2.018706685003545</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.944937986683938</v>
@@ -11000,7 +10892,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.897138642527943</v>
+        <v>2.005676112732155</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.521371522376633</v>
@@ -11089,7 +10981,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.902001424199419</v>
+        <v>2.007712688251281</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.085589369254824</v>
@@ -11178,7 +11070,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.912698994604104</v>
+        <v>2.020059475723061</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.248857756696543</v>
@@ -11267,7 +11159,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.893070539379579</v>
+        <v>1.998486237175276</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.510324842464871</v>
@@ -11356,7 +11248,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.898095949897781</v>
+        <v>2.011292117934268</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.092014011840768</v>
@@ -11445,7 +11337,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.895801209418669</v>
+        <v>2.003654795403084</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.389571810870052</v>
@@ -11534,7 +11426,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.890136953580278</v>
+        <v>1.997117082480404</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.190620878415967</v>
@@ -11623,7 +11515,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.900000626419983</v>
+        <v>2.004129348969151</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.420860592960745</v>
@@ -11712,7 +11604,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.911851884868519</v>
+        <v>2.015892737436943</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.210197850403305</v>
@@ -11801,7 +11693,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.916438221973058</v>
+        <v>2.017163322132249</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.292449178764444</v>
@@ -11890,7 +11782,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.929499249098586</v>
+        <v>2.029893602021762</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.65316085921559</v>
@@ -11979,7 +11871,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.927974226376668</v>
+        <v>2.028323940718185</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.64793773308332</v>
@@ -12068,7 +11960,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.906360494656561</v>
+        <v>2.008806022731423</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.839276808489926</v>
@@ -12157,7 +12049,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.918267398835748</v>
+        <v>2.017397332453862</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.022589640620194</v>
@@ -12246,7 +12138,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.924324030142663</v>
+        <v>2.024837945332405</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.602051726983692</v>
@@ -12335,7 +12227,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.922457966889088</v>
+        <v>2.015364840919235</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.291712472444738</v>
@@ -12424,7 +12316,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.939181638259362</v>
+        <v>2.031234419308558</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.58246985752868</v>
@@ -12513,7 +12405,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.946699720076453</v>
+        <v>2.034662998227919</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.659138900423769</v>
@@ -12602,7 +12494,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.961586398893904</v>
+        <v>2.046742273915495</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.447755585599589</v>
@@ -12888,7 +12780,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.906226525631062</v>
+        <v>1.989867032093684</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.995208193307499</v>
@@ -12977,7 +12869,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.898886640874136</v>
+        <v>1.98357815380108</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.035436053751106</v>
@@ -13066,7 +12958,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.891684869714722</v>
+        <v>1.974684869782638</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.838200747138894</v>
@@ -13155,7 +13047,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.88515369007959</v>
+        <v>1.969459191573021</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.01150749295776</v>
@@ -13244,7 +13136,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.887024126353837</v>
+        <v>1.972468052558332</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.202538015640153</v>
@@ -13333,7 +13225,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.88077045752695</v>
+        <v>1.965471054224872</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.959075141641541</v>
@@ -13422,7 +13314,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.86499036153345</v>
+        <v>1.951128565667428</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.082738319128747</v>
@@ -13511,7 +13403,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.871334052637919</v>
+        <v>1.955963464530426</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.81923029019184</v>
@@ -13600,7 +13492,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.872627449724881</v>
+        <v>1.962102805226597</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.877986224667474</v>
@@ -13689,7 +13581,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.871808599279057</v>
+        <v>1.963165503302185</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.643320537898024</v>
@@ -13778,7 +13670,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.881145689286077</v>
+        <v>1.971922523414847</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.183490247094729</v>
@@ -13867,7 +13759,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.881191312721496</v>
+        <v>1.976761452146932</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.329423274580273</v>
@@ -13956,7 +13848,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.869105270723581</v>
+        <v>1.965490041462614</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.450932562170351</v>
@@ -14045,7 +13937,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.879533601006654</v>
+        <v>1.984675422608025</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.525805650343493</v>
@@ -14134,7 +14026,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.88740735646273</v>
+        <v>1.994698556467928</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.635990573210319</v>
@@ -14223,7 +14115,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.893272036442918</v>
+        <v>2.000759922034158</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.519079101982622</v>
@@ -14312,7 +14204,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.888701457282132</v>
+        <v>1.995566307873388</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.57519669179022</v>
@@ -14401,7 +14293,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.900816348838767</v>
+        <v>2.006979216020645</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.530140820398314</v>
@@ -14490,7 +14382,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.916217544751353</v>
+        <v>2.020962554936344</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.506310187032661</v>
@@ -14579,7 +14471,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.905785476937984</v>
+        <v>2.010755878233052</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.638114888018441</v>
@@ -14668,7 +14560,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.912900586558201</v>
+        <v>2.015988465038292</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.579702866968459</v>
@@ -14757,7 +14649,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.931221184225153</v>
+        <v>2.033692894435734</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.552058885842353</v>
@@ -14846,7 +14738,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.928819316443156</v>
+        <v>2.031255893493974</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.586865530841351</v>
@@ -14935,7 +14827,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.934274772579352</v>
+        <v>2.035739705708031</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.557901909622456</v>
@@ -15024,7 +14916,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.944099330896283</v>
+        <v>2.044387527967022</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.592598368151092</v>
@@ -15113,7 +15005,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.950098062615488</v>
+        <v>2.049393659096891</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.550960100458341</v>
@@ -15202,7 +15094,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.976438661979523</v>
+        <v>2.073399938575282</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.34709719869176</v>
@@ -15291,7 +15183,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.994585342934766</v>
+        <v>2.090058778481071</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.651597182440628</v>
@@ -15380,7 +15272,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.995359054280441</v>
+        <v>2.078377344177019</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.299497179941358</v>
@@ -15469,7 +15361,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.976050835358088</v>
+        <v>2.063494148705816</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.782279853489518</v>
@@ -15558,7 +15450,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.979188568518305</v>
+        <v>2.063089612508719</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.698597888506784</v>
@@ -15647,7 +15539,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.000407977642103</v>
+        <v>2.080703941199129</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.955984437803147</v>
@@ -15736,7 +15628,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.98296533668725</v>
+        <v>2.066860610056693</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.937281276329248</v>
@@ -15825,7 +15717,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.976280978722178</v>
+        <v>2.061030280458441</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.067023191151239</v>
@@ -15914,7 +15806,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.999149395390086</v>
+        <v>2.079069904484962</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.048652383266754</v>
@@ -16003,7 +15895,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.999665544248961</v>
+        <v>2.078915552839892</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.140405374475485</v>
@@ -16092,7 +15984,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.989433560401152</v>
+        <v>2.070110042916166</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.95182405647508</v>
@@ -16181,7 +16073,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.002586764876808</v>
+        <v>2.078780634556984</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.647797204063171</v>
@@ -16270,7 +16162,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.000660642294601</v>
+        <v>2.076626585528139</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.655381831676904</v>
@@ -16359,7 +16251,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.998357992768254</v>
+        <v>2.075052727686518</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.929295103380593</v>
@@ -16448,7 +16340,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.995836677894926</v>
+        <v>2.072622575461226</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.813082905590812</v>
@@ -16537,7 +16429,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.011986961619572</v>
+        <v>2.086033167848108</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.921436823813273</v>
@@ -16626,7 +16518,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.973104356822732</v>
+        <v>2.051577970079414</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.845503440439087</v>
@@ -16715,7 +16607,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.973144913267373</v>
+        <v>2.051863923044321</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.929179712822239</v>
@@ -16804,7 +16696,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.994813473815485</v>
+        <v>2.067798368220486</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.754433055329729</v>
@@ -16893,7 +16785,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.977610282373063</v>
+        <v>2.045738246601088</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.503870337211045</v>
@@ -16982,7 +16874,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.960201168857717</v>
+        <v>2.045130746853072</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.849379047685306</v>
@@ -17071,7 +16963,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.989107654085993</v>
+        <v>2.069291865167484</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.576343837941274</v>
@@ -17160,7 +17052,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.992760875170274</v>
+        <v>2.071507126355321</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.879955638447737</v>
@@ -17249,7 +17141,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.974751711132817</v>
+        <v>2.055175981728353</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.418419646682812</v>
@@ -17338,7 +17230,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.971216007034919</v>
+        <v>2.054816870769506</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.891488614012822</v>
@@ -17427,7 +17319,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.975883911778077</v>
+        <v>2.056472142884881</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.821789919954401</v>
@@ -17516,7 +17408,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.975985027916141</v>
+        <v>2.05565730727538</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.887739823252154</v>
@@ -17605,7 +17497,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.956691326443882</v>
+        <v>2.035024511630041</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.545584437212683</v>
@@ -17694,7 +17586,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.949195052849356</v>
+        <v>2.027478661395643</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.39235027995503</v>
@@ -17783,7 +17675,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.950771874962043</v>
+        <v>2.027521274500797</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.754951216710064</v>
@@ -17872,7 +17764,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.955537630032556</v>
+        <v>2.033209772793094</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.428415611023401</v>
@@ -17961,7 +17853,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.963408772936579</v>
+        <v>2.039926727138188</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.829789015343149</v>
@@ -18050,7 +17942,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.969552081611132</v>
+        <v>2.046941500296307</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.457205126943045</v>
@@ -18139,7 +18031,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.966299738949453</v>
+        <v>2.044705116187172</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.044583631334219</v>
@@ -18228,7 +18120,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.969096751661626</v>
+        <v>2.043912439360715</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.466038499213921</v>
@@ -18514,7 +18406,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.219955341338898</v>
+        <v>2.243663076930047</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>12.38595128707381</v>
@@ -18603,7 +18495,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.221617266103945</v>
+        <v>2.245008885898375</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>8.698272289914403</v>
@@ -18692,7 +18584,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.225424070452929</v>
+        <v>2.247679764064036</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>11.78568679897797</v>
@@ -18781,7 +18673,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.23481939768209</v>
+        <v>2.252071750417199</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>12.74315537072283</v>
@@ -18870,7 +18762,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.234452083735003</v>
+        <v>2.253869439563108</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>7.638273807772406</v>
@@ -18959,7 +18851,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.232050078900342</v>
+        <v>2.253901894028319</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>7.49318432540267</v>
@@ -19048,7 +18940,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.228949306626121</v>
+        <v>2.253181358967872</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>10.79343673756365</v>
@@ -19137,7 +19029,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.228224235358156</v>
+        <v>2.253954389815776</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>8.230683140431942</v>
@@ -19226,7 +19118,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.228071987678945</v>
+        <v>2.254125762935327</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>6.53210182903403</v>
@@ -19315,7 +19207,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.227416979243716</v>
+        <v>2.254004122341397</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>12.90717298047508</v>
@@ -19404,7 +19296,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.225884910334607</v>
+        <v>2.254018449404316</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>6.86933578102489</v>
@@ -19493,7 +19385,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.22379851227629</v>
+        <v>2.253846927975103</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>6.873101772619218</v>
@@ -19582,7 +19474,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.198267119229642</v>
+        <v>2.236532062126761</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>7.166476101561874</v>
@@ -19671,7 +19563,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.189461705239125</v>
+        <v>2.233390510123395</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>5.616149191082012</v>
@@ -19760,7 +19652,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.187011272998407</v>
+        <v>2.230712394137975</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>7.04332093932855</v>
@@ -19849,7 +19741,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.182835436497139</v>
+        <v>2.227942780705706</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>5.08388954878116</v>
@@ -19938,7 +19830,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.180922283491849</v>
+        <v>2.225730389472475</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>6.37198477807581</v>
@@ -20027,7 +19919,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.177325958466721</v>
+        <v>2.222501793391952</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>5.206390129026653</v>
@@ -20116,7 +20008,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.173340242041448</v>
+        <v>2.218585736781181</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>5.733501313799915</v>
@@ -20205,7 +20097,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.166211346199745</v>
+        <v>2.212773570134797</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.302540494788388</v>
@@ -20294,7 +20186,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.156943316843311</v>
+        <v>2.206054755933228</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.550462845277003</v>
@@ -20383,7 +20275,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.148997104350688</v>
+        <v>2.199755087770328</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.917424504304821</v>
@@ -20472,7 +20364,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.135307315144579</v>
+        <v>2.188725894382252</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.417202376090759</v>
@@ -20561,7 +20453,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.116791908731895</v>
+        <v>2.176033623274257</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.383010128932248</v>
@@ -20650,7 +20542,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.093651664885666</v>
+        <v>2.159269379731923</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.713939564542775</v>
@@ -20739,7 +20631,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.061593499592209</v>
+        <v>2.135288008423507</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.036809369283632</v>
@@ -20828,7 +20720,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.028388119730291</v>
+        <v>2.110359711958437</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.776562297959497</v>
@@ -20917,7 +20809,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.056723353932106</v>
+        <v>2.139754003217394</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.649573697849538</v>
@@ -21006,7 +20898,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.052627167872706</v>
+        <v>2.134991135241975</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>5.101341247552888</v>
@@ -21095,7 +20987,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.047151936899801</v>
+        <v>2.12897468992339</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>5.288030042734219</v>
@@ -21184,7 +21076,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.04596595977535</v>
+        <v>2.128221956702664</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>6.022888736504554</v>
@@ -21273,7 +21165,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.042136590895134</v>
+        <v>2.125816044467101</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>6.199234791305943</v>
@@ -21362,7 +21254,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.045132122333734</v>
+        <v>2.127661683598855</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>6.464204245687585</v>
@@ -21451,7 +21343,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.042799968754188</v>
+        <v>2.125905425508803</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>7.30335616671937</v>
@@ -21540,7 +21432,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.04701398525335</v>
+        <v>2.129597281268067</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.229348150122348</v>
@@ -21629,7 +21521,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.045208353336124</v>
+        <v>2.129174292948347</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>7.027243080874483</v>
@@ -21718,7 +21610,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.043758261407673</v>
+        <v>2.128859030442123</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>6.583826178303108</v>
@@ -21807,7 +21699,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.046715384018028</v>
+        <v>2.130520026101175</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>6.824112263389444</v>
@@ -21896,7 +21788,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.045986061565272</v>
+        <v>2.1300336346758</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.217022375746536</v>
@@ -21985,7 +21877,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.044955946607771</v>
+        <v>2.128659064172352</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.925021396079198</v>
@@ -22074,7 +21966,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.048466869137089</v>
+        <v>2.130152352480533</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.92896416301032</v>
@@ -22163,7 +22055,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.052369842179758</v>
+        <v>2.132550715884758</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>7.276574760980618</v>
@@ -22252,7 +22144,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.053471613957573</v>
+        <v>2.132525843838893</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>6.928048375567748</v>
@@ -22341,7 +22233,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.055192532030672</v>
+        <v>2.134093978148259</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.982026165355402</v>
@@ -22430,7 +22322,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.054435439486969</v>
+        <v>2.13326496391454</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>7.551044178583949</v>
@@ -22519,7 +22411,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.053398465000872</v>
+        <v>2.13100484136809</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.757346055077169</v>
@@ -22608,7 +22500,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.052392769108979</v>
+        <v>2.131395725556184</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>6.882993405119313</v>
@@ -22697,7 +22589,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.050363170310862</v>
+        <v>2.128262365942225</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>6.319872205129673</v>
@@ -22786,7 +22678,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.04735305078132</v>
+        <v>2.126348780603352</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>5.515458570947186</v>
@@ -22875,7 +22767,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.046832230466536</v>
+        <v>2.124541925376088</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.530823661603918</v>
@@ -22964,7 +22856,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.050161726312574</v>
+        <v>2.126121992224011</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>6.862977540963345</v>
@@ -23053,7 +22945,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.049964385369597</v>
+        <v>2.124262617403701</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>5.963329701903332</v>
@@ -23142,7 +23034,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.050836127945787</v>
+        <v>2.12577913048924</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>6.038295422725764</v>
@@ -23231,7 +23123,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.051825656257543</v>
+        <v>2.126031565014439</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>6.497708149179283</v>
@@ -23320,7 +23212,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.052037256454307</v>
+        <v>2.125408888682573</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>5.030875606084409</v>
@@ -23409,7 +23301,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.054913882343815</v>
+        <v>2.128673689481065</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>5.574462716806803</v>
@@ -23498,7 +23390,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.04948204018991</v>
+        <v>2.123853784653493</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>6.130777691847503</v>
@@ -23587,7 +23479,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.040528827462995</v>
+        <v>2.115733339327824</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>6.293930038243956</v>
@@ -23676,7 +23568,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.039644179515562</v>
+        <v>2.1162022932069</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>5.093243621202989</v>
@@ -23765,7 +23657,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.041462217395148</v>
+        <v>2.117216827046371</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>6.566696890604215</v>
@@ -23854,7 +23746,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.043896798839444</v>
+        <v>2.118986342336405</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>5.042201759535002</v>
@@ -24140,7 +24032,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.035371872370316</v>
+        <v>2.131123346325768</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>6.045466764793797</v>
@@ -24229,7 +24121,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.034354685163168</v>
+        <v>2.131650327752323</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.503171248980888</v>
@@ -24318,7 +24210,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.03216309527662</v>
+        <v>2.131078925586159</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.576760277615768</v>
@@ -24407,7 +24299,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.047288654910384</v>
+        <v>2.138703269937729</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>6.162918929743642</v>
@@ -24496,7 +24388,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.048404567266002</v>
+        <v>2.142626221617167</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5.555465458859841</v>
@@ -24585,7 +24477,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.04825683332073</v>
+        <v>2.145917792268884</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>5.104929376509307</v>
@@ -24674,7 +24566,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.043645306246892</v>
+        <v>2.144821538741537</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5.558905075154648</v>
@@ -24763,7 +24655,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.043644372372834</v>
+        <v>2.145853150347487</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>6.892333224510562</v>
@@ -24852,7 +24744,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.057029275818686</v>
+        <v>2.151906137371712</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>6.426648190240487</v>
@@ -24941,7 +24833,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.052322488341757</v>
+        <v>2.147348188384025</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>6.535626900593602</v>
@@ -25030,7 +24922,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.052994595002234</v>
+        <v>2.149330791741619</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>7.559861068272858</v>
@@ -25119,7 +25011,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.05167374654523</v>
+        <v>2.147976257703129</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.899055647971303</v>
@@ -25208,7 +25100,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.03816414069568</v>
+        <v>2.126521334836857</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.186779460716186</v>
@@ -25297,7 +25189,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.049956141987678</v>
+        <v>2.134706415821416</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.83471134313595</v>
@@ -25386,7 +25278,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.061217289524847</v>
+        <v>2.144941654488445</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.38528765552165</v>
@@ -25475,7 +25367,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.058121130656148</v>
+        <v>2.143586635935744</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.159244432778348</v>
@@ -25564,7 +25456,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.058647166204346</v>
+        <v>2.142730173024465</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.806510671909948</v>
@@ -25653,7 +25545,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.059883940297075</v>
+        <v>2.142086869545973</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.340154769760706</v>
@@ -25742,7 +25634,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.061573279527201</v>
+        <v>2.141036990890794</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.632994165701519</v>
@@ -25831,7 +25723,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.066530721663815</v>
+        <v>2.143920876768786</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.243775807533814</v>
@@ -25920,7 +25812,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.0712799691548</v>
+        <v>2.145691797557286</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.007456249178924</v>
@@ -26009,7 +25901,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.083971076284762</v>
+        <v>2.151894322545938</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.485259350483966</v>
@@ -26098,7 +25990,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.089437200319708</v>
+        <v>2.154351747821626</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.368061046088724</v>
@@ -26187,7 +26079,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.09367749289304</v>
+        <v>2.157714896668231</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.190581656281339</v>
@@ -26276,7 +26168,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.107222297264474</v>
+        <v>2.166297241948441</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.38113767645426</v>
@@ -26365,7 +26257,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.114816510895658</v>
+        <v>2.171490276205127</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.522210990575631</v>
@@ -26454,7 +26346,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.131795498333428</v>
+        <v>2.185118049764398</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.649981744975479</v>
@@ -26543,7 +26435,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.166278385896693</v>
+        <v>2.216358115533355</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>7.40392672342065</v>
@@ -26632,7 +26524,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.171438829881761</v>
+        <v>2.217340906326736</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>6.209963886162909</v>
@@ -26721,7 +26613,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.180410486522664</v>
+        <v>2.219192355045434</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>5.820927827833281</v>
@@ -26810,7 +26702,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.183385602997045</v>
+        <v>2.219228149374</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>8.174376385815512</v>
@@ -26899,7 +26791,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.184495812488891</v>
+        <v>2.219455909358296</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>6.845181298982502</v>
@@ -26988,7 +26880,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.183627050328385</v>
+        <v>2.219422714643615</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>7.5568476730484</v>
@@ -27077,7 +26969,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.182744308729912</v>
+        <v>2.218456658429473</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>8.736977015901804</v>
@@ -27166,7 +27058,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.180153811218672</v>
+        <v>2.218159725018177</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>7.288914547724128</v>
@@ -27255,7 +27147,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.180053476392115</v>
+        <v>2.218227493913453</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>7.716277453455502</v>
@@ -27344,7 +27236,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.174698127413251</v>
+        <v>2.215570703216244</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>7.0335389498322</v>
@@ -27433,7 +27325,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.174632910957455</v>
+        <v>2.216273197781153</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>9.209272542777251</v>
@@ -27522,7 +27414,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.173913628931792</v>
+        <v>2.216587335032486</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.773261125289551</v>
@@ -27611,7 +27503,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.172789655043687</v>
+        <v>2.215932854042047</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>8.510781090930509</v>
@@ -27700,7 +27592,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.172000334268755</v>
+        <v>2.216022036656864</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.968720154033497</v>
@@ -27789,7 +27681,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.172316123136048</v>
+        <v>2.215827821256196</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>9.064926649335629</v>
@@ -27878,7 +27770,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.17427555175383</v>
+        <v>2.216500997972852</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>7.387425135879369</v>
@@ -27967,7 +27859,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.171368007746456</v>
+        <v>2.214523490742173</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>6.542058693262479</v>
@@ -28056,7 +27948,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.172481058239303</v>
+        <v>2.214435413116814</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>7.155473941661239</v>
@@ -28145,7 +28037,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.172193942403199</v>
+        <v>2.213690680624697</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>6.283038336260661</v>
@@ -28234,7 +28126,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.172404734327794</v>
+        <v>2.214310479161033</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>10.19203782553987</v>
@@ -28323,7 +28215,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.17516536627048</v>
+        <v>2.216060775783956</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>6.566552464509147</v>
@@ -28412,7 +28304,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.175276491069086</v>
+        <v>2.215552615680952</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>7.483999717365855</v>
@@ -28501,7 +28393,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.178338165177069</v>
+        <v>2.215974906575185</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>5.499692031291533</v>
@@ -28590,7 +28482,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.180857101748857</v>
+        <v>2.21662821506091</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>7.546660687824261</v>
@@ -28679,7 +28571,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.183906196094877</v>
+        <v>2.216754543984384</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>6.479858173971738</v>
@@ -28768,7 +28660,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.185679787421247</v>
+        <v>2.218013455211277</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>8.462450088175624</v>
@@ -28857,7 +28749,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.186675745578823</v>
+        <v>2.217480110057493</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>6.672016847676795</v>
@@ -28946,7 +28838,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.186858847175814</v>
+        <v>2.21645141880726</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>7.255272919954132</v>
@@ -29035,7 +28927,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.190793103142887</v>
+        <v>2.218474786242258</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>7.236891322854804</v>
@@ -29124,7 +29016,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.188381821657687</v>
+        <v>2.216973271712436</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>7.285384607303983</v>
@@ -29213,7 +29105,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.186153365991188</v>
+        <v>2.215070399503469</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>8.482792352928353</v>
@@ -29302,7 +29194,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.18580958306124</v>
+        <v>2.216683400670583</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>5.916546759317763</v>
@@ -29391,7 +29283,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.186569832769258</v>
+        <v>2.217079109506567</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>8.066080604929377</v>
@@ -29480,7 +29372,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.185353490578938</v>
+        <v>2.215465532823235</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>6.350661884389549</v>
@@ -29766,7 +29658,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.038494556420139</v>
+        <v>2.12629105164402</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>6.180228103016892</v>
@@ -29855,7 +29747,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.044072350354149</v>
+        <v>2.126638862091798</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5.960864776723131</v>
@@ -29944,7 +29836,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.05153885966538</v>
+        <v>2.12970208183914</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>6.307814277628754</v>
@@ -30033,7 +29925,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.06134590038607</v>
+        <v>2.142263437614513</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>6.574817463826707</v>
@@ -30122,7 +30014,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.061402532115344</v>
+        <v>2.144123479034771</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5.976501307917508</v>
@@ -30211,7 +30103,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.063379321684262</v>
+        <v>2.145195556563537</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>6.201106887449917</v>
@@ -30300,7 +30192,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.064983648881409</v>
+        <v>2.147234035539477</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>6.156828094520703</v>
@@ -30389,7 +30281,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.071393859058303</v>
+        <v>2.152782606489535</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5.133934760850598</v>
@@ -30478,7 +30370,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.069822457326918</v>
+        <v>2.156105293856592</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>7.319226194185968</v>
@@ -30567,7 +30459,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.070527894573607</v>
+        <v>2.158630805989888</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>7.354751384992492</v>
@@ -30656,7 +30548,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.069452961338943</v>
+        <v>2.157503884148943</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.944546935484218</v>
@@ -30745,7 +30637,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.064219432618944</v>
+        <v>2.152206813529257</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.444586135160655</v>
@@ -30834,7 +30726,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.975451509963605</v>
+        <v>2.062654060140262</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.403925533774838</v>
@@ -30923,7 +30815,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.969821736174113</v>
+        <v>2.062741549543575</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.448158130599124</v>
@@ -31012,7 +30904,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.962795089754659</v>
+        <v>2.059887472232314</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.390030195134773</v>
@@ -31101,7 +30993,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.957691961825953</v>
+        <v>2.055182369197305</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.366670863809484</v>
@@ -31190,7 +31082,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.955145250196829</v>
+        <v>2.052128350105451</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.346159890388454</v>
@@ -31279,7 +31171,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.952286445781192</v>
+        <v>2.048346768938428</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.381063135514246</v>
@@ -31368,7 +31260,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.949723023250998</v>
+        <v>2.045597963503279</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.320225902424067</v>
@@ -31457,7 +31349,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.946328860588362</v>
+        <v>2.040156057097543</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.248460484882778</v>
@@ -31546,7 +31438,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.942720689982066</v>
+        <v>2.035848317972748</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.275660378877508</v>
@@ -31635,7 +31527,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.942612405917774</v>
+        <v>2.035364634845664</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.280493122260183</v>
@@ -31724,7 +31616,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.938728619232466</v>
+        <v>2.030621012470196</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.222958703938665</v>
@@ -31813,7 +31705,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.928060738749881</v>
+        <v>2.019166689150854</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.167131515066376</v>
@@ -31902,7 +31794,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.923253574118738</v>
+        <v>2.014157276313968</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.132976705225333</v>
@@ -31991,7 +31883,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.920725080493109</v>
+        <v>2.009661963550971</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.171709967280003</v>
@@ -32080,7 +31972,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.938108088335084</v>
+        <v>2.01928171969686</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.193001977099433</v>
@@ -32169,7 +32061,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.051348044960216</v>
+        <v>2.141640481105117</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.026597047403579</v>
@@ -32258,7 +32150,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.050695526437401</v>
+        <v>2.129003057244419</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.823204688898103</v>
@@ -32347,7 +32239,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.064977864993462</v>
+        <v>2.138621256133956</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.684260480160473</v>
@@ -32436,7 +32328,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.066495872466778</v>
+        <v>2.140083984009683</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.1295041784863</v>
@@ -32525,7 +32417,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.073151867810882</v>
+        <v>2.14478584843634</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.514639864746337</v>
@@ -32614,7 +32506,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.054700524400149</v>
+        <v>2.131039236393859</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.449836410705575</v>
@@ -32703,7 +32595,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.058001151056491</v>
+        <v>2.131137599774568</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.509172436511966</v>
@@ -32792,7 +32684,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.064344701796265</v>
+        <v>2.139133356052856</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.012771536855663</v>
@@ -32881,7 +32773,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.064019147764321</v>
+        <v>2.138333141101015</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.744309523606252</v>
@@ -32970,7 +32862,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.062934012836258</v>
+        <v>2.137599643280959</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.777039947616897</v>
@@ -33059,7 +32951,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.051876201886556</v>
+        <v>2.128432792007139</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.689045175169742</v>
@@ -33148,7 +33040,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.068816578591319</v>
+        <v>2.141246554718961</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.19009998216853</v>
@@ -33237,7 +33129,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.069350952307993</v>
+        <v>2.142475060920185</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.455657288593087</v>
@@ -33326,7 +33218,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.064034656265072</v>
+        <v>2.139738743244133</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.304377492427427</v>
@@ -33415,7 +33307,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.064145014492508</v>
+        <v>2.139990372497905</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.779089856059512</v>
@@ -33504,7 +33396,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.068731699346246</v>
+        <v>2.143608972783508</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.611890356853877</v>
@@ -33593,7 +33485,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.087320207335555</v>
+        <v>2.157978729639961</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.603207450079884</v>
@@ -33682,7 +33574,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.090279481505422</v>
+        <v>2.159661317868152</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.973731287549357</v>
@@ -33771,7 +33663,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.091735667731171</v>
+        <v>2.160471536118243</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.489129392117728</v>
@@ -33860,7 +33752,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.088770385153865</v>
+        <v>2.160006395342219</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.920605338438506</v>
@@ -33949,7 +33841,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.113936900303317</v>
+        <v>2.178137537922777</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.873926632723879</v>
@@ -34038,7 +33930,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.113968474032777</v>
+        <v>2.178691900918168</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>5.621988111454193</v>
@@ -34127,7 +34019,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.11712010622057</v>
+        <v>2.179624427129339</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.332607655181672</v>
@@ -34216,7 +34108,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.12041984260722</v>
+        <v>2.181149268971106</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>5.599650691337219</v>
@@ -34305,7 +34197,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.12592628972597</v>
+        <v>2.183301751927881</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.982312284697579</v>
@@ -34394,7 +34286,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.140322414004185</v>
+        <v>2.193616385700994</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>5.596459688286502</v>
@@ -34483,7 +34375,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.137899407428232</v>
+        <v>2.191142019066991</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.891631810354747</v>
@@ -34572,7 +34464,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.131919546149667</v>
+        <v>2.186558257922426</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>5.486378434027496</v>
@@ -34661,7 +34553,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.139530489893611</v>
+        <v>2.191695777372432</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>5.590402510539495</v>
@@ -34750,7 +34642,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.141020003708442</v>
+        <v>2.191801331005303</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>8.581120554385539</v>
@@ -34839,7 +34731,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.139238505818143</v>
+        <v>2.188151930740408</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>6.811054313382514</v>
@@ -34928,7 +34820,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.121810081337367</v>
+        <v>2.181037556760843</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>5.432148876534094</v>
@@ -35017,7 +34909,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.121982599064667</v>
+        <v>2.181678240506737</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>6.856571585949101</v>
@@ -35106,7 +34998,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.118257728902591</v>
+        <v>2.176648047439568</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>5.917816944573388</v>
@@ -35392,7 +35284,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.053038373984196</v>
+        <v>2.163817077600763</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>6.179611010420751</v>
@@ -35481,7 +35373,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.054401691009399</v>
+        <v>2.16563141329221</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>6.326219207156642</v>
@@ -35570,7 +35462,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.059760761588042</v>
+        <v>2.171389920361635</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>5.183820178360334</v>
@@ -35659,7 +35551,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.07058206749367</v>
+        <v>2.179565990903463</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>6.618868958258481</v>
@@ -35748,7 +35640,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.065916997586643</v>
+        <v>2.17846642411133</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5.206883595082805</v>
@@ -35837,7 +35729,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.063345194266358</v>
+        <v>2.178605905182443</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.959942717585085</v>
@@ -35926,7 +35818,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.051665780058757</v>
+        <v>2.168680347151806</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>6.183948347967424</v>
@@ -36015,7 +35907,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.051619017712312</v>
+        <v>2.169001655328076</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5.542201844352046</v>
@@ -36104,7 +35996,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.064282026956664</v>
+        <v>2.178385275826467</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>6.250064752262269</v>
@@ -36193,7 +36085,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.060993256350492</v>
+        <v>2.17569400538789</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>5.741025099473738</v>
@@ -36282,7 +36174,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.063811506665598</v>
+        <v>2.179157287120851</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>6.192639281749015</v>
@@ -36371,7 +36263,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.067115915647136</v>
+        <v>2.182780028082612</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>6.825088815230608</v>
@@ -36460,7 +36352,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.045072377080892</v>
+        <v>2.156563480488184</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5.044928475718702</v>
@@ -36549,7 +36441,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.046586327230015</v>
+        <v>2.156940698128181</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.545678013421919</v>
@@ -36638,7 +36530,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.054103478890233</v>
+        <v>2.163409603309226</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.076266115352513</v>
@@ -36727,7 +36619,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.05123499113786</v>
+        <v>2.159993428317079</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.02983203769034</v>
@@ -36816,7 +36708,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.046628252023483</v>
+        <v>2.156413365605848</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.651279331943727</v>
@@ -36905,7 +36797,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.041857571478566</v>
+        <v>2.150491949932113</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.016663836245183</v>
@@ -36994,7 +36886,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.043001828538023</v>
+        <v>2.149915186781779</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.491047700969053</v>
@@ -37083,7 +36975,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.036817843661993</v>
+        <v>2.143309900464099</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.288137521660292</v>
@@ -37172,7 +37064,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.031831179655394</v>
+        <v>2.135639829900019</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.184633405140392</v>
@@ -37261,7 +37153,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.04052481431078</v>
+        <v>2.141712136470872</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.829972694170771</v>
@@ -37350,7 +37242,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.041159421744259</v>
+        <v>2.139571561753422</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.713521548471053</v>
@@ -37439,7 +37331,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.03287290683001</v>
+        <v>2.129986327836867</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.715581157290414</v>
@@ -37528,7 +37420,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.040596667828554</v>
+        <v>2.1322558457286</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.924083029500203</v>
@@ -37617,7 +37509,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.031812459129741</v>
+        <v>2.120209726455848</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.321599960681834</v>
@@ -37706,7 +37598,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.031624831159585</v>
+        <v>2.115548346815824</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.682618489780552</v>
@@ -37795,7 +37687,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.08180237645642</v>
+        <v>2.160399251827828</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.322556650406487</v>
@@ -37884,7 +37776,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.080425373131854</v>
+        <v>2.156615647537031</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.776432371789282</v>
@@ -37973,7 +37865,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.076203562968791</v>
+        <v>2.151276721352286</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>5.167580736211401</v>
@@ -38062,7 +37954,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.078886996198368</v>
+        <v>2.151151605954115</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>5.701876708094079</v>
@@ -38151,7 +38043,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.079619795463672</v>
+        <v>2.151743407794608</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.731832849573605</v>
@@ -38240,7 +38132,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.094079847170069</v>
+        <v>2.162140356562261</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>5.250257149263369</v>
@@ -38329,7 +38221,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.079101234673812</v>
+        <v>2.150991138907213</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>6.045835088638234</v>
@@ -38418,7 +38310,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.0916299790165</v>
+        <v>2.16077342414731</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>6.455892452057432</v>
@@ -38507,7 +38399,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.087124146494608</v>
+        <v>2.157030203311863</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>5.100932900578552</v>
@@ -38596,7 +38488,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.085139233484453</v>
+        <v>2.154959237288806</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>5.014350173462805</v>
@@ -38685,7 +38577,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.067590568846804</v>
+        <v>2.144614182627616</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>5.438730408399675</v>
@@ -38774,7 +38666,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.065152643453159</v>
+        <v>2.142154284878342</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>5.925771814490489</v>
@@ -38863,7 +38755,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.063274497450873</v>
+        <v>2.14042119277502</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>6.166249531286849</v>
@@ -38952,7 +38844,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.067894701961225</v>
+        <v>2.145003429195789</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.441183150411352</v>
@@ -39041,7 +38933,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.062358842347529</v>
+        <v>2.140227718276451</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>5.369505959398255</v>
@@ -39130,7 +39022,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.052145660896692</v>
+        <v>2.134932563058252</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>6.426317190438881</v>
@@ -39219,7 +39111,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.057418710726207</v>
+        <v>2.138132179276943</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>5.931418108220401</v>
@@ -39308,7 +39200,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.062918269013439</v>
+        <v>2.143008126868549</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>5.070002041908202</v>
@@ -39397,7 +39289,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.048374078697206</v>
+        <v>2.13096413207838</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.187108111732912</v>
@@ -39486,7 +39378,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.054717709984542</v>
+        <v>2.13749742276495</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>6.038010673253153</v>
@@ -39575,7 +39467,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.046023771134774</v>
+        <v>2.13232619390889</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>5.958775280508844</v>
@@ -39664,7 +39556,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.039975555758696</v>
+        <v>2.126479437885637</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>5.641416341541012</v>
@@ -39753,7 +39645,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>2.040736711956972</v>
+        <v>2.125867684148618</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.018019594855997</v>
@@ -39842,7 +39734,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>2.048727850656038</v>
+        <v>2.133097833856394</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>5.471104810906093</v>
@@ -39931,7 +39823,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>2.050685804084488</v>
+        <v>2.134315021850279</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>5.328419623192113</v>
@@ -40020,7 +39912,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>2.06304907464274</v>
+        <v>2.143674945238634</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>6.158366585627423</v>
@@ -40109,7 +40001,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2.063863578428196</v>
+        <v>2.142795672335053</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.399948583176804</v>
@@ -40198,7 +40090,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2.056598187081367</v>
+        <v>2.138018047506525</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.778354133233549</v>
@@ -40287,7 +40179,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>2.064357796519011</v>
+        <v>2.14325387246047</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>5.848612763047927</v>
@@ -40376,7 +40268,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2.071665000028955</v>
+        <v>2.147486519486837</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>5.995146194641333</v>
@@ -40465,7 +40357,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2.052158298532826</v>
+        <v>2.128482867747655</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>5.047335948196219</v>
@@ -40554,7 +40446,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>2.059424659574763</v>
+        <v>2.134093783502415</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.22948372998208</v>
@@ -40643,7 +40535,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>2.058777112610179</v>
+        <v>2.133485430506413</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>5.95565788839901</v>
@@ -40732,7 +40624,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>2.066265130668857</v>
+        <v>2.137293857845939</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>5.920412527430855</v>
